--- a/xlsx/黄金_intext.xlsx
+++ b/xlsx/黄金_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1516">
   <si>
     <t>黄金</t>
   </si>
@@ -29,7 +29,7 @@
     <t>金 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_黄金</t>
+    <t>体育运动_体育运动_草根_黄金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6</t>
@@ -836,10 +836,10 @@
     <t>牙醫學</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%90</t>
-  </si>
-  <si>
-    <t>盐</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%90_(%E5%8C%96%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>盐 (化学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E7%82%8E%E8%8D%AF</t>
@@ -974,10 +974,10 @@
     <t>中药</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1</t>
-  </si>
-  <si>
-    <t>熱</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%87%8F</t>
+  </si>
+  <si>
+    <t>熱量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
@@ -1382,10 +1382,10 @@
     <t>電子顯微鏡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E7%93%B7</t>
-  </si>
-  <si>
-    <t>陶瓷</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E7%93%B7%E5%99%A8</t>
+  </si>
+  <si>
+    <t>陶瓷器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%8C%E7%97%87</t>
@@ -1916,10 +1916,10 @@
     <t>麥加</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E8%A6%B2</t>
-  </si>
-  <si>
-    <t>朝覲</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E8%A7%90_(%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99)</t>
+  </si>
+  <si>
+    <t>朝觐 (伊斯兰教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%BE%85</t>
@@ -1946,10 +1946,10 @@
     <t>通脹</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>阿拉伯</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>阿拉伯世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8%E5%AE%B6</t>
@@ -2208,12 +2208,6 @@
   </si>
   <si>
     <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%99%B8</t>
-  </si>
-  <si>
-    <t>噸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%85%A7%E6%96%AF%E5%A0%A1</t>
@@ -5290,7 +5284,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -5319,7 +5313,7 @@
         <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -5348,7 +5342,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -5638,7 +5632,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -5725,7 +5719,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -15695,10 +15689,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>257</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>258</v>
       </c>
       <c r="G372" t="n">
         <v>9</v>
@@ -15724,10 +15718,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F373" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15753,10 +15747,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F374" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15782,10 +15776,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F375" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15811,10 +15805,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F376" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15840,10 +15834,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F377" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -15869,10 +15863,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F378" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15898,10 +15892,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F379" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15927,10 +15921,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F380" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15956,10 +15950,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F381" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15985,10 +15979,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F382" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -16014,10 +16008,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F383" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -16043,10 +16037,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F384" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -16072,10 +16066,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F385" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -16101,10 +16095,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F386" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -16130,10 +16124,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F387" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -16159,10 +16153,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F388" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -16188,10 +16182,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F389" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -16217,10 +16211,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F390" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -16246,10 +16240,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F391" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -16275,10 +16269,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -16304,10 +16298,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F393" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -16333,10 +16327,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F394" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -16362,10 +16356,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F395" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G395" t="n">
         <v>6</v>
@@ -16391,10 +16385,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F396" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -16420,10 +16414,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F397" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -16449,10 +16443,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F398" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G398" t="n">
         <v>4</v>
@@ -16478,10 +16472,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F399" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -16507,10 +16501,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F400" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -16536,10 +16530,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F401" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -16565,10 +16559,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F402" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G402" t="n">
         <v>3</v>
@@ -16594,10 +16588,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F403" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -16623,10 +16617,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F404" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -16652,10 +16646,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F405" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16681,10 +16675,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F406" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -16710,10 +16704,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F407" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -16739,10 +16733,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F408" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -16768,10 +16762,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F409" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16797,10 +16791,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F410" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16826,10 +16820,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F411" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16855,10 +16849,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F412" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -16884,10 +16878,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F413" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16913,10 +16907,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F414" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -16942,10 +16936,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F415" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16971,10 +16965,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F416" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -17000,10 +16994,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F417" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -17029,10 +17023,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F418" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -17058,10 +17052,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F419" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G419" t="n">
         <v>8</v>
@@ -17087,10 +17081,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F420" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -17116,10 +17110,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F421" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -17145,10 +17139,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F422" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -17174,10 +17168,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F423" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G423" t="n">
         <v>5</v>
@@ -17203,10 +17197,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F424" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -17232,10 +17226,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F425" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -17261,10 +17255,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F426" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -17290,10 +17284,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F427" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -17319,10 +17313,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F428" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G428" t="n">
         <v>7</v>
@@ -17348,10 +17342,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F429" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -17377,10 +17371,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F430" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -17406,10 +17400,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F431" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -17435,10 +17429,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F432" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -17464,10 +17458,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F433" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -17493,10 +17487,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F434" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -17551,10 +17545,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F436" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -17580,10 +17574,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F437" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -17609,10 +17603,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F438" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -17638,10 +17632,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F439" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -17667,10 +17661,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F440" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -17696,10 +17690,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F441" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -17725,10 +17719,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F442" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -17754,10 +17748,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F443" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17783,10 +17777,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F444" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17812,10 +17806,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F445" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17841,10 +17835,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F446" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G446" t="n">
         <v>0</v>
@@ -17870,10 +17864,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F447" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17899,10 +17893,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F448" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17928,10 +17922,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F449" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G449" t="n">
         <v>4</v>
@@ -17957,10 +17951,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F450" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -17986,10 +17980,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F451" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -18015,10 +18009,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F452" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -18044,10 +18038,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F453" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -18073,10 +18067,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F454" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -18102,10 +18096,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F455" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -18131,10 +18125,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F456" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -18160,10 +18154,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F457" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -18189,10 +18183,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F458" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -18218,10 +18212,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F459" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -18247,10 +18241,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F460" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -18276,10 +18270,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F461" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -18305,10 +18299,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F462" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -18334,10 +18328,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F463" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -18363,10 +18357,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F464" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -18392,10 +18386,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F465" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -18421,10 +18415,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F466" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -18450,10 +18444,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F467" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -18479,10 +18473,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F468" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -18508,10 +18502,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F469" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -18537,10 +18531,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F470" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -18566,10 +18560,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F471" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -18595,10 +18589,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F472" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -18624,10 +18618,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F473" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -18653,10 +18647,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F474" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -18682,10 +18676,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F475" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -18711,10 +18705,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F476" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -18740,10 +18734,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F477" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18769,10 +18763,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F478" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18798,10 +18792,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F479" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18827,10 +18821,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F480" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18856,10 +18850,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F481" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18885,10 +18879,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F482" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18914,10 +18908,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F483" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18943,10 +18937,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F484" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18972,10 +18966,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F485" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -19001,10 +18995,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F486" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -19030,10 +19024,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F487" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -19059,10 +19053,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F488" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -19088,10 +19082,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F489" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -19117,10 +19111,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F490" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -19146,10 +19140,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F491" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -19175,10 +19169,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F492" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -19204,10 +19198,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F493" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G493" t="n">
         <v>7</v>
@@ -19233,10 +19227,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F494" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -19262,10 +19256,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F495" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G495" t="n">
         <v>6</v>
@@ -19291,10 +19285,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F496" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -19320,10 +19314,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F497" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -19349,10 +19343,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F498" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -19378,10 +19372,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F499" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -19407,10 +19401,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F500" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -19436,10 +19430,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F501" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -19465,10 +19459,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F502" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -19494,10 +19488,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F503" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G503" t="n">
         <v>30</v>
@@ -19523,10 +19517,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F504" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -19552,10 +19546,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F505" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -19581,10 +19575,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F506" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -19610,10 +19604,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F507" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -19639,10 +19633,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F508" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -19668,10 +19662,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F509" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -19697,10 +19691,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F510" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -19726,10 +19720,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F511" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G511" t="n">
         <v>7</v>
@@ -19784,10 +19778,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F513" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G513" t="n">
         <v>6</v>
@@ -19813,13 +19807,13 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F514" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G514" t="n">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -19842,13 +19836,13 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F515" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G515" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H515" t="s">
         <v>4</v>
@@ -19871,13 +19865,13 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F516" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G516" t="n">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H516" t="s">
         <v>4</v>
@@ -19900,13 +19894,13 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F517" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G517" t="n">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H517" t="s">
         <v>4</v>
@@ -19929,13 +19923,13 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F518" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G518" t="n">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -19958,13 +19952,13 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F519" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G519" t="n">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -19987,13 +19981,13 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F520" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G520" t="n">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -20016,13 +20010,13 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F521" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G521" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -20045,13 +20039,13 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F522" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G522" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>
@@ -20074,13 +20068,13 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F523" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G523" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H523" t="s">
         <v>4</v>
@@ -20103,13 +20097,13 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F524" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="G524" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -20132,13 +20126,13 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F525" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G525" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -20161,13 +20155,13 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F526" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G526" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -20190,13 +20184,13 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F527" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G527" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -20225,7 +20219,7 @@
         <v>334</v>
       </c>
       <c r="G528" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H528" t="s">
         <v>4</v>
@@ -20248,13 +20242,13 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F529" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G529" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H529" t="s">
         <v>4</v>
@@ -20277,10 +20271,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F530" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G530" t="n">
         <v>48</v>
@@ -20306,10 +20300,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F531" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G531" t="n">
         <v>4</v>
@@ -20335,10 +20329,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F532" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G532" t="n">
         <v>8</v>
@@ -20364,10 +20358,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F533" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G533" t="n">
         <v>5</v>
@@ -20393,13 +20387,13 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F534" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G534" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -20422,10 +20416,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F535" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G535" t="n">
         <v>134</v>
@@ -20451,10 +20445,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F536" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G536" t="n">
         <v>86</v>
@@ -20486,7 +20480,7 @@
         <v>328</v>
       </c>
       <c r="G537" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H537" t="s">
         <v>4</v>
@@ -20509,10 +20503,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F538" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G538" t="n">
         <v>51</v>
@@ -20538,10 +20532,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F539" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G539" t="n">
         <v>5</v>
@@ -20567,10 +20561,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F540" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G540" t="n">
         <v>35</v>
@@ -20596,10 +20590,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F541" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -20625,10 +20619,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F542" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G542" t="n">
         <v>6</v>
@@ -20654,10 +20648,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F543" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G543" t="n">
         <v>3</v>
@@ -20683,10 +20677,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F544" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G544" t="n">
         <v>99</v>
@@ -20712,10 +20706,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F545" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G545" t="n">
         <v>84</v>
@@ -20741,10 +20735,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F546" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G546" t="n">
         <v>8</v>
@@ -20799,10 +20793,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F548" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G548" t="n">
         <v>17</v>
@@ -20828,10 +20822,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F549" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G549" t="n">
         <v>6</v>
@@ -20857,10 +20851,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F550" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G550" t="n">
         <v>4</v>
@@ -20886,13 +20880,13 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F551" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G551" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H551" t="s">
         <v>4</v>
@@ -20915,10 +20909,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F552" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20944,10 +20938,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F553" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20973,10 +20967,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F554" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G554" t="n">
         <v>6</v>
@@ -21002,10 +20996,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F555" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G555" t="n">
         <v>26</v>
@@ -21031,10 +21025,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F556" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -21089,10 +21083,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F558" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G558" t="n">
         <v>3</v>
@@ -21118,10 +21112,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F559" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G559" t="n">
         <v>3</v>
@@ -21147,10 +21141,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F560" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G560" t="n">
         <v>5</v>
@@ -21176,10 +21170,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F561" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -21205,10 +21199,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F562" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G562" t="n">
         <v>10</v>
@@ -21234,10 +21228,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F563" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G563" t="n">
         <v>6</v>
@@ -21263,10 +21257,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F564" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G564" t="n">
         <v>2</v>
@@ -21292,10 +21286,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F565" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -21321,10 +21315,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F566" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -21350,10 +21344,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F567" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G567" t="n">
         <v>6</v>
@@ -21379,10 +21373,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F568" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -21408,10 +21402,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F569" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -21437,10 +21431,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F570" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G570" t="n">
         <v>15</v>
@@ -21466,10 +21460,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F571" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -21495,10 +21489,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F572" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G572" t="n">
         <v>6</v>
@@ -21524,10 +21518,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F573" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -21611,10 +21605,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F576" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -21640,10 +21634,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F577" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G577" t="n">
         <v>15</v>
@@ -21669,10 +21663,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F578" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G578" t="n">
         <v>2</v>
@@ -21698,10 +21692,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F579" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G579" t="n">
         <v>3</v>
@@ -21756,10 +21750,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F581" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G581" t="n">
         <v>78</v>
@@ -21785,10 +21779,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F582" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G582" t="n">
         <v>5</v>
@@ -21814,10 +21808,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F583" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G583" t="n">
         <v>7</v>
@@ -21843,10 +21837,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F584" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G584" t="n">
         <v>14</v>
@@ -21872,10 +21866,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F585" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G585" t="n">
         <v>9</v>
@@ -21901,10 +21895,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F586" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G586" t="n">
         <v>19</v>
@@ -21930,10 +21924,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F587" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21959,10 +21953,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F588" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21988,10 +21982,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F589" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -22017,10 +22011,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F590" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -22046,10 +22040,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F591" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -22075,10 +22069,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F592" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -22104,10 +22098,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F593" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G593" t="n">
         <v>2</v>
@@ -22133,10 +22127,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F594" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G594" t="n">
         <v>6</v>
@@ -22162,10 +22156,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F595" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -22191,10 +22185,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F596" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -22220,10 +22214,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F597" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -22249,10 +22243,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F598" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G598" t="n">
         <v>5</v>
@@ -22278,10 +22272,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F599" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G599" t="n">
         <v>2</v>
@@ -22307,10 +22301,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F600" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G600" t="n">
         <v>16</v>
@@ -22336,10 +22330,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F601" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G601" t="n">
         <v>30</v>
@@ -22365,10 +22359,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F602" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G602" t="n">
         <v>38</v>
@@ -22394,10 +22388,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F603" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G603" t="n">
         <v>2</v>
@@ -22423,10 +22417,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F604" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G604" t="n">
         <v>3</v>
@@ -22452,10 +22446,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F605" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -22481,10 +22475,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F606" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -22510,10 +22504,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F607" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -22539,10 +22533,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F608" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G608" t="n">
         <v>7</v>
@@ -22568,10 +22562,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F609" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G609" t="n">
         <v>3</v>
@@ -22597,10 +22591,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F610" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -22626,10 +22620,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F611" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G611" t="n">
         <v>5</v>
@@ -22655,10 +22649,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F612" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G612" t="n">
         <v>4</v>
@@ -22684,10 +22678,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F613" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G613" t="n">
         <v>4</v>
@@ -22713,10 +22707,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F614" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G614" t="n">
         <v>8</v>
@@ -22742,10 +22736,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F615" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G615" t="n">
         <v>24</v>
@@ -22771,10 +22765,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F616" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G616" t="n">
         <v>33</v>
@@ -22800,10 +22794,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F617" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22829,10 +22823,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F618" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G618" t="n">
         <v>4</v>
@@ -22858,10 +22852,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F619" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22887,10 +22881,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F620" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22916,10 +22910,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F621" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22945,10 +22939,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F622" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22974,10 +22968,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F623" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G623" t="n">
         <v>2</v>
@@ -23003,10 +22997,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F624" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -23032,10 +23026,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F625" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -23061,10 +23055,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F626" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G626" t="n">
         <v>12</v>
@@ -23090,10 +23084,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F627" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -23119,10 +23113,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F628" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -23148,10 +23142,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F629" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -23177,10 +23171,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F630" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -23206,10 +23200,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F631" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -23235,10 +23229,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F632" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="G632" t="n">
         <v>2</v>
@@ -23264,10 +23258,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F633" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -23293,10 +23287,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F634" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -23351,10 +23345,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F636" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -23380,10 +23374,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F637" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -23409,10 +23403,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F638" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="G638" t="n">
         <v>2</v>
@@ -23438,10 +23432,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F639" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G639" t="n">
         <v>2</v>
@@ -23467,10 +23461,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F640" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -23496,10 +23490,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F641" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G641" t="n">
         <v>3</v>
@@ -23525,10 +23519,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F642" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -23554,10 +23548,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F643" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G643" t="n">
         <v>2</v>
@@ -23583,10 +23577,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F644" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -23612,10 +23606,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F645" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -23641,10 +23635,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F646" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -23670,10 +23664,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F647" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -23699,10 +23693,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F648" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G648" t="n">
         <v>2</v>
@@ -23728,10 +23722,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F649" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23757,10 +23751,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F650" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23786,10 +23780,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F651" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23815,10 +23809,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F652" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23844,10 +23838,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F653" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23873,10 +23867,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F654" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23902,10 +23896,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F655" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23931,10 +23925,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F656" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23960,10 +23954,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F657" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23989,10 +23983,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F658" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -24018,10 +24012,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="F659" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -24047,10 +24041,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F660" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -24076,10 +24070,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F661" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -24134,10 +24128,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F663" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G663" t="n">
         <v>3</v>
@@ -24163,10 +24157,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F664" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -24192,10 +24186,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F665" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G665" t="n">
         <v>3</v>
@@ -24221,10 +24215,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F666" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -24250,10 +24244,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F667" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G667" t="n">
         <v>2</v>
@@ -24279,10 +24273,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F668" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G668" t="n">
         <v>2</v>
@@ -24308,10 +24302,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F669" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -24337,10 +24331,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F670" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -24366,10 +24360,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F671" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -24395,10 +24389,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F672" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G672" t="n">
         <v>2</v>
@@ -24424,10 +24418,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F673" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -24453,10 +24447,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F674" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -24482,10 +24476,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F675" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -24511,10 +24505,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F676" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G676" t="n">
         <v>2</v>
@@ -24540,10 +24534,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F677" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G677" t="n">
         <v>2</v>
@@ -24569,10 +24563,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F678" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G678" t="n">
         <v>2</v>
@@ -24598,10 +24592,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F679" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G679" t="n">
         <v>11</v>
@@ -24627,10 +24621,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F680" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -24656,10 +24650,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F681" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -24685,10 +24679,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F682" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -24714,10 +24708,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F683" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G683" t="n">
         <v>5</v>
@@ -24743,10 +24737,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F684" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -24772,10 +24766,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F685" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G685" t="n">
         <v>7</v>
@@ -24801,10 +24795,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F686" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -24830,10 +24824,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F687" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -24859,10 +24853,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F688" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -24888,10 +24882,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F689" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -24917,10 +24911,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F690" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24946,10 +24940,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F691" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24975,10 +24969,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F692" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -25004,10 +24998,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F693" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -25033,10 +25027,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F694" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G694" t="n">
         <v>5</v>
@@ -25062,10 +25056,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F695" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -25091,10 +25085,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F696" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -25120,10 +25114,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F697" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -25149,10 +25143,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F698" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -25178,10 +25172,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F699" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -25207,10 +25201,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F700" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -25236,10 +25230,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F701" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -25265,10 +25259,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F702" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -25294,10 +25288,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F703" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G703" t="n">
         <v>2</v>
@@ -25323,10 +25317,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F704" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -25352,10 +25346,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F705" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -25381,10 +25375,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F706" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -25410,10 +25404,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F707" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -25439,10 +25433,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F708" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -25468,10 +25462,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F709" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -25497,10 +25491,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F710" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -25526,10 +25520,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F711" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -25555,10 +25549,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F712" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -25584,10 +25578,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F713" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -25613,10 +25607,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F714" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -25642,10 +25636,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F715" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -25671,10 +25665,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F716" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G716" t="n">
         <v>7</v>
@@ -25700,10 +25694,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F717" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -25729,10 +25723,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F718" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -25758,10 +25752,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F719" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -25787,10 +25781,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F720" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -25816,10 +25810,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F721" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -25845,10 +25839,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F722" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G722" t="n">
         <v>1</v>
@@ -25874,10 +25868,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F723" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -25903,10 +25897,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F724" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -25932,10 +25926,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F725" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -25961,10 +25955,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F726" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -25990,10 +25984,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F727" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -26019,10 +26013,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F728" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -26048,10 +26042,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F729" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -26077,10 +26071,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F730" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -26106,10 +26100,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F731" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -26135,10 +26129,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F732" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -26164,10 +26158,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F733" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -26193,10 +26187,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F734" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G734" t="n">
         <v>3</v>
@@ -26222,10 +26216,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F735" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -26251,10 +26245,10 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F736" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G736" t="n">
         <v>1</v>
@@ -26280,10 +26274,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F737" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -26309,10 +26303,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F738" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -26338,10 +26332,10 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F739" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G739" t="n">
         <v>2</v>
@@ -26367,10 +26361,10 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="F740" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G740" t="n">
         <v>1</v>
@@ -26396,10 +26390,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F741" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G741" t="n">
         <v>1</v>
@@ -26425,10 +26419,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F742" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -26454,10 +26448,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F743" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -26483,10 +26477,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="F744" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G744" t="n">
         <v>1</v>
@@ -26512,10 +26506,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="F745" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -26541,10 +26535,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="F746" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -26570,10 +26564,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="F747" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -26599,10 +26593,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="F748" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -26628,10 +26622,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F749" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G749" t="n">
         <v>2</v>
@@ -26657,10 +26651,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F750" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -26686,10 +26680,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F751" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -26715,10 +26709,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F752" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G752" t="n">
         <v>2</v>
@@ -26744,10 +26738,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F753" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -26773,10 +26767,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F754" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G754" t="n">
         <v>2</v>
@@ -26802,10 +26796,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="F755" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -26831,10 +26825,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F756" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -26860,10 +26854,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="F757" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -26889,10 +26883,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F758" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -26918,10 +26912,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F759" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -26947,10 +26941,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F760" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -26976,10 +26970,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="F761" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -27005,10 +26999,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="F762" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -27034,10 +27028,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="F763" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -27063,10 +27057,10 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="F764" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="G764" t="n">
         <v>1</v>
@@ -27092,10 +27086,10 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="F765" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -27121,10 +27115,10 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="F766" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G766" t="n">
         <v>2</v>
@@ -27150,10 +27144,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="F767" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="G767" t="n">
         <v>1</v>
@@ -27179,10 +27173,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F768" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="G768" t="n">
         <v>2</v>
@@ -27208,10 +27202,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F769" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="G769" t="n">
         <v>1</v>
@@ -27237,10 +27231,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F770" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="G770" t="n">
         <v>8</v>
@@ -27266,10 +27260,10 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F771" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="G771" t="n">
         <v>1</v>
@@ -27295,10 +27289,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F772" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="G772" t="n">
         <v>3</v>
@@ -27324,10 +27318,10 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F773" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G773" t="n">
         <v>1</v>
@@ -27353,10 +27347,10 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F774" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G774" t="n">
         <v>1</v>
@@ -27382,10 +27376,10 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="F775" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G775" t="n">
         <v>1</v>
@@ -27411,10 +27405,10 @@
         <v>775</v>
       </c>
       <c r="E776" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="F776" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -27440,10 +27434,10 @@
         <v>776</v>
       </c>
       <c r="E777" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F777" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
@@ -27469,10 +27463,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F778" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -27498,10 +27492,10 @@
         <v>778</v>
       </c>
       <c r="E779" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F779" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="G779" t="n">
         <v>1</v>
@@ -27527,10 +27521,10 @@
         <v>779</v>
       </c>
       <c r="E780" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F780" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="G780" t="n">
         <v>1</v>
@@ -27556,10 +27550,10 @@
         <v>780</v>
       </c>
       <c r="E781" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F781" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="G781" t="n">
         <v>1</v>
@@ -27585,10 +27579,10 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F782" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -27614,10 +27608,10 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F783" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -27643,10 +27637,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F784" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="G784" t="n">
         <v>3</v>
@@ -27672,10 +27666,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F785" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="G785" t="n">
         <v>1</v>
@@ -27701,10 +27695,10 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F786" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="G786" t="n">
         <v>1</v>
@@ -27730,10 +27724,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="F787" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="G787" t="n">
         <v>1</v>
@@ -27759,10 +27753,10 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="F788" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="G788" t="n">
         <v>1</v>
@@ -27788,10 +27782,10 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F789" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="G789" t="n">
         <v>1</v>
@@ -27817,10 +27811,10 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="F790" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="G790" t="n">
         <v>14</v>
@@ -27846,10 +27840,10 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F791" t="s">
         <v>1515</v>
-      </c>
-      <c r="F791" t="s">
-        <v>1517</v>
       </c>
       <c r="G791" t="n">
         <v>1</v>
